--- a/biology/Biochimie/Guanosine_diphosphate/Guanosine_diphosphate.xlsx
+++ b/biology/Biochimie/Guanosine_diphosphate/Guanosine_diphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La guanosine diphosphate, abrégée en GDP, est un nucléotide. C'est une coenzyme de transfert de groupements phosphate. Elle résulte de l'hydrolyse de la GTP. Le groupement phosphate libéré peut être transféré sur une protéine.
